--- a/alt.xlsx
+++ b/alt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mad/Library/CloudStorage/Dropbox/shared/z_schuelerturnier/03-Sponsoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mad/Library/CloudStorage/Dropbox/shared/z_schuelerturnier/09-Informatik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4250EA96-5E65-F94D-9C01-C8E39854B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9418780-9EEB-4F4A-AF60-5D49E3A769CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="2160" windowWidth="43860" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="2160" windowWidth="43860" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktuell" sheetId="4" r:id="rId1"/>
@@ -1488,9 +1488,6 @@
     <t>Hr. Russo/Fr Stooss</t>
   </si>
   <si>
-    <t>Elite Hair</t>
-  </si>
-  <si>
     <t>Raspe Uhren und Schmuck</t>
   </si>
   <si>
@@ -1522,6 +1519,9 @@
   </si>
   <si>
     <t>Stucki_Logo_KBW_Schwarz.jpg</t>
+  </si>
+  <si>
+    <t>Elite Hair_</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE9CF14-A459-4939-98D0-E3A7E4FBD83C}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K38" sqref="K38"/>
     </sheetView>
@@ -3643,19 +3643,19 @@
     </row>
     <row r="34" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="C34" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="D34" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="E34" s="27" t="s">
         <v>477</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>478</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>204</v>
@@ -3664,22 +3664,22 @@
         <v>258</v>
       </c>
       <c r="H34" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="I34" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="J34" s="28" t="s">
+      <c r="K34" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="M34" s="27" t="s">
         <v>480</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -4253,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC06CA59-D5AC-4B64-9B9C-F437C02A4AFD}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="83" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="64"/>

--- a/alt.xlsx
+++ b/alt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mad/Library/CloudStorage/Dropbox/shared/z_schuelerturnier/09-Informatik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9418780-9EEB-4F4A-AF60-5D49E3A769CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049AE30B-5BDE-EC49-A6B6-69E776D2B4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="2160" windowWidth="43860" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,6 +1488,9 @@
     <t>Hr. Russo/Fr Stooss</t>
   </si>
   <si>
+    <t>Elite Hair</t>
+  </si>
+  <si>
     <t>Raspe Uhren und Schmuck</t>
   </si>
   <si>
@@ -1519,9 +1522,6 @@
   </si>
   <si>
     <t>Stucki_Logo_KBW_Schwarz.jpg</t>
-  </si>
-  <si>
-    <t>Elite Hair_</t>
   </si>
 </sst>
 </file>
@@ -3643,19 +3643,19 @@
     </row>
     <row r="34" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>204</v>
@@ -3664,22 +3664,22 @@
         <v>258</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J34" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="L34" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="M34" s="27" t="s">
         <v>481</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="78" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="83" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="64"/>
